--- a/biology/Botanique/Nikolai_Cholodny/Nikolai_Cholodny.xlsx
+++ b/biology/Botanique/Nikolai_Cholodny/Nikolai_Cholodny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nikolai Grigoryevich Cholodny (russe : Никола́й Григо́рьевич Холо́дный 22 juin 1882 - 4 mai 1953) est un microbiologiste influent qui travaille à l'Université de Kiev, en Ukraine, en URSS dans les années 1930.
-Il est connu pour le modèle Cholodny-Went, qu'il développe indépendamment avec Frits Warmolt Went du California Institute of Technology. Bien qu'associés à la même théorie, les deux hommes ne se sont jamais rencontrés [1].
+Il est connu pour le modèle Cholodny-Went, qu'il développe indépendamment avec Frits Warmolt Went du California Institute of Technology. Bien qu'associés à la même théorie, les deux hommes ne se sont jamais rencontrés .
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cholodny travaille au Jardin botanique Fomine de Kiev, rattaché à l'Université de Kiev [2]. Il est l'un des pionniers du concept selon lequel les microbes adhèrent aux surfaces, en utilisant la technique consistant à placer d'abord des lames de verre dans la terre pendant une période de temps mesurée, puis à utiliser un microscope pour examiner les lames [3],[4]. Le procaryote Leptothrix cholodnii porte son nom [5]. En 1927, Cholodny propose que les cellules du coléoptile soient d'abord polarisées sous l'influence d'une exposition inégale à la lumière, de sorte que l'hormone de croissance puisse se diffuser plus rapidement vers le côté à l'ombre que dans toute autre direction. Went parvient à la même conclusion en 1928 et les noms des deux scientifiques sont attachés à la théorie controversée de Cholodny-Went [6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cholodny travaille au Jardin botanique Fomine de Kiev, rattaché à l'Université de Kiev . Il est l'un des pionniers du concept selon lequel les microbes adhèrent aux surfaces, en utilisant la technique consistant à placer d'abord des lames de verre dans la terre pendant une période de temps mesurée, puis à utiliser un microscope pour examiner les lames ,. Le procaryote Leptothrix cholodnii porte son nom . En 1927, Cholodny propose que les cellules du coléoptile soient d'abord polarisées sous l'influence d'une exposition inégale à la lumière, de sorte que l'hormone de croissance puisse se diffuser plus rapidement vers le côté à l'ombre que dans toute autre direction. Went parvient à la même conclusion en 1928 et les noms des deux scientifiques sont attachés à la théorie controversée de Cholodny-Went .
 </t>
         </is>
       </c>
